--- a/vertices_lamell.xlsx
+++ b/vertices_lamell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programy\z.studi\ROK 6\magister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8247C03-FA12-4AF6-A425-BCB8AD5D1C9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9BF5AE-4327-4FB5-A15B-83882EE4C741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,253 +49,253 @@
     <t>-0.3090</t>
   </si>
   <si>
-    <t>-0.8642</t>
-  </si>
-  <si>
-    <t>0.1369</t>
-  </si>
-  <si>
-    <t>0.2920</t>
-  </si>
-  <si>
-    <t>-0.1369</t>
+    <t>-0.9446</t>
+  </si>
+  <si>
+    <t>-0.1496</t>
+  </si>
+  <si>
+    <t>0.2921</t>
+  </si>
+  <si>
+    <t>0.1496</t>
+  </si>
+  <si>
+    <t>-0.8586</t>
+  </si>
+  <si>
+    <t>0.5126</t>
+  </si>
+  <si>
+    <t>-0.8522</t>
+  </si>
+  <si>
+    <t>0.4342</t>
+  </si>
+  <si>
+    <t>-0.4342</t>
+  </si>
+  <si>
+    <t>-0.8166</t>
+  </si>
+  <si>
+    <t>0.2653</t>
+  </si>
+  <si>
+    <t>-0.2653</t>
   </si>
   <si>
     <t>-0.8090</t>
   </si>
   <si>
+    <t>0.5878</t>
+  </si>
+  <si>
     <t>-0.5878</t>
   </si>
   <si>
-    <t>0.5878</t>
-  </si>
-  <si>
-    <t>-0.7796</t>
-  </si>
-  <si>
-    <t>0.3972</t>
-  </si>
-  <si>
-    <t>-0.3972</t>
-  </si>
-  <si>
-    <t>-0.7500</t>
-  </si>
-  <si>
-    <t>0.5133</t>
-  </si>
-  <si>
-    <t>-0.7133</t>
-  </si>
-  <si>
-    <t>0.2318</t>
-  </si>
-  <si>
-    <t>-0.2318</t>
-  </si>
-  <si>
-    <t>-0.6187</t>
-  </si>
-  <si>
-    <t>0.6187</t>
-  </si>
-  <si>
-    <t>-0.6173</t>
-  </si>
-  <si>
-    <t>0.0978</t>
-  </si>
-  <si>
-    <t>0.6447</t>
-  </si>
-  <si>
-    <t>-0.0978</t>
-  </si>
-  <si>
-    <t>-0.6068</t>
-  </si>
-  <si>
-    <t>-0.4408</t>
-  </si>
-  <si>
-    <t>0.4408</t>
+    <t>-0.7558</t>
+  </si>
+  <si>
+    <t>0.1197</t>
+  </si>
+  <si>
+    <t>0.6438</t>
+  </si>
+  <si>
+    <t>-0.1197</t>
+  </si>
+  <si>
+    <t>-0.6946</t>
+  </si>
+  <si>
+    <t>0.5047</t>
+  </si>
+  <si>
+    <t>-0.5047</t>
+  </si>
+  <si>
+    <t>-0.6818</t>
+  </si>
+  <si>
+    <t>0.3474</t>
+  </si>
+  <si>
+    <t>-0.3474</t>
+  </si>
+  <si>
+    <t>-0.6763</t>
+  </si>
+  <si>
+    <t>0.6763</t>
+  </si>
+  <si>
+    <t>-0.6503</t>
+  </si>
+  <si>
+    <t>0.7597</t>
+  </si>
+  <si>
+    <t>-0.6185</t>
+  </si>
+  <si>
+    <t>0.2010</t>
+  </si>
+  <si>
+    <t>-0.2010</t>
   </si>
   <si>
     <t>0.8090</t>
   </si>
   <si>
-    <t>-0.5569</t>
-  </si>
-  <si>
-    <t>0.2837</t>
-  </si>
-  <si>
-    <t>-0.2837</t>
-  </si>
-  <si>
-    <t>-0.4974</t>
-  </si>
-  <si>
-    <t>0.7607</t>
-  </si>
-  <si>
-    <t>-0.4731</t>
-  </si>
-  <si>
-    <t>0.1537</t>
-  </si>
-  <si>
-    <t>-0.1537</t>
-  </si>
-  <si>
-    <t>-0.4419</t>
-  </si>
-  <si>
-    <t>0.4419</t>
-  </si>
-  <si>
-    <t>0.6068</t>
-  </si>
-  <si>
-    <t>-0.4024</t>
-  </si>
-  <si>
-    <t>-0.2924</t>
-  </si>
-  <si>
-    <t>0.2924</t>
-  </si>
-  <si>
-    <t>0.7796</t>
-  </si>
-  <si>
-    <t>-0.3704</t>
-  </si>
-  <si>
-    <t>0.0587</t>
-  </si>
-  <si>
-    <t>0.8653</t>
-  </si>
-  <si>
-    <t>-0.0587</t>
-  </si>
-  <si>
-    <t>-0.3341</t>
-  </si>
-  <si>
-    <t>0.1702</t>
-  </si>
-  <si>
-    <t>-0.1702</t>
+    <t>-0.5411</t>
+  </si>
+  <si>
+    <t>0.5411</t>
+  </si>
+  <si>
+    <t>-0.5261</t>
+  </si>
+  <si>
+    <t>0.3822</t>
+  </si>
+  <si>
+    <t>-0.3822</t>
+  </si>
+  <si>
+    <t>0.6946</t>
+  </si>
+  <si>
+    <t>-0.4969</t>
+  </si>
+  <si>
+    <t>-0.0787</t>
+  </si>
+  <si>
+    <t>0.8642</t>
+  </si>
+  <si>
+    <t>0.0787</t>
+  </si>
+  <si>
+    <t>-0.4483</t>
+  </si>
+  <si>
+    <t>0.2284</t>
+  </si>
+  <si>
+    <t>-0.2284</t>
+  </si>
+  <si>
+    <t>0.8522</t>
+  </si>
+  <si>
+    <t>-0.4000</t>
+  </si>
+  <si>
+    <t>0.9165</t>
+  </si>
+  <si>
+    <t>0.5261</t>
+  </si>
+  <si>
+    <t>-0.3804</t>
+  </si>
+  <si>
+    <t>0.1236</t>
+  </si>
+  <si>
+    <t>-0.1236</t>
+  </si>
+  <si>
+    <t>-0.3557</t>
+  </si>
+  <si>
+    <t>0.3557</t>
+  </si>
+  <si>
+    <t>0.6818</t>
+  </si>
+  <si>
+    <t>-0.3236</t>
+  </si>
+  <si>
+    <t>0.2351</t>
+  </si>
+  <si>
+    <t>-0.2351</t>
   </si>
   <si>
     <t>0.9511</t>
   </si>
   <si>
-    <t>0.4024</t>
-  </si>
-  <si>
-    <t>0.5569</t>
-  </si>
-  <si>
-    <t>-0.2652</t>
-  </si>
-  <si>
-    <t>0.2652</t>
-  </si>
-  <si>
-    <t>-0.2486</t>
-  </si>
-  <si>
-    <t>0.9249</t>
-  </si>
-  <si>
-    <t>-0.2365</t>
-  </si>
-  <si>
-    <t>0.0768</t>
-  </si>
-  <si>
-    <t>-0.0768</t>
-  </si>
-  <si>
-    <t>0.7133</t>
-  </si>
-  <si>
-    <t>-0.2011</t>
-  </si>
-  <si>
-    <t>-0.1461</t>
-  </si>
-  <si>
-    <t>0.1461</t>
-  </si>
-  <si>
-    <t>0.3341</t>
-  </si>
-  <si>
-    <t>0.4731</t>
-  </si>
-  <si>
-    <t>0.2011</t>
-  </si>
-  <si>
-    <t>0.8642</t>
-  </si>
-  <si>
-    <t>-0.1235</t>
-  </si>
-  <si>
-    <t>0.0196</t>
-  </si>
-  <si>
-    <t>0.9787</t>
-  </si>
-  <si>
-    <t>-0.0196</t>
-  </si>
-  <si>
-    <t>-0.1114</t>
-  </si>
-  <si>
-    <t>0.0567</t>
-  </si>
-  <si>
-    <t>-0.0567</t>
-  </si>
-  <si>
-    <t>0.6173</t>
-  </si>
-  <si>
-    <t>-0.0884</t>
-  </si>
-  <si>
-    <t>0.0884</t>
-  </si>
-  <si>
-    <t>0.2365</t>
-  </si>
-  <si>
-    <t>0.3704</t>
-  </si>
-  <si>
-    <t>0.1114</t>
-  </si>
-  <si>
-    <t>0.1235</t>
+    <t>0.8166</t>
+  </si>
+  <si>
+    <t>0.3236</t>
+  </si>
+  <si>
+    <t>0.4483</t>
+  </si>
+  <si>
+    <t>-0.2071</t>
+  </si>
+  <si>
+    <t>0.0328</t>
+  </si>
+  <si>
+    <t>0.9778</t>
+  </si>
+  <si>
+    <t>-0.0328</t>
+  </si>
+  <si>
+    <t>0.6185</t>
+  </si>
+  <si>
+    <t>-0.1868</t>
+  </si>
+  <si>
+    <t>0.0952</t>
+  </si>
+  <si>
+    <t>-0.0952</t>
+  </si>
+  <si>
+    <t>0.9446</t>
+  </si>
+  <si>
+    <t>-0.1483</t>
+  </si>
+  <si>
+    <t>0.1483</t>
+  </si>
+  <si>
+    <t>0.3804</t>
+  </si>
+  <si>
+    <t>0.7558</t>
+  </si>
+  <si>
+    <t>0.1868</t>
+  </si>
+  <si>
+    <t>0.4969</t>
+  </si>
+  <si>
+    <t>0.2071</t>
+  </si>
+  <si>
+    <t>0.6503</t>
+  </si>
+  <si>
+    <t>0.4000</t>
   </si>
   <si>
     <t>1.0000</t>
   </si>
   <si>
-    <t>0.7500</t>
-  </si>
-  <si>
-    <t>0.4974</t>
-  </si>
-  <si>
-    <t>0.2486</t>
+    <t>0.8586</t>
   </si>
 </sst>
 </file>
@@ -722,26 +722,26 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -752,24 +752,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -791,7 +791,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -802,7 +802,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -810,131 +810,131 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -956,139 +956,139 @@
         <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1096,406 +1096,406 @@
         <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1506,7 +1506,7 @@
         <v>87</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1517,7 +1517,7 @@
         <v>88</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1528,7 +1528,7 @@
         <v>89</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1536,10 +1536,10 @@
         <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1547,10 +1547,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1558,10 +1558,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1569,10 +1569,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1580,10 +1580,10 @@
         <v>4</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1591,549 +1591,549 @@
         <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -2141,10 +2141,10 @@
         <v>42</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -2152,205 +2152,205 @@
         <v>42</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>10</v>
@@ -2358,32 +2358,32 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>10</v>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>10</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>6</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>7</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>4</v>
